--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7059C14-352E-44CE-92FA-F5596587026E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CBCDE-C97B-4F76-B9F6-2307D1603B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stress_period_table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>year</t>
   </si>
@@ -344,6 +344,33 @@
   </si>
   <si>
     <t>14/07/2011</t>
+  </si>
+  <si>
+    <t>kc_pasture.txt</t>
+  </si>
+  <si>
+    <t>kc_grain.txt</t>
+  </si>
+  <si>
+    <t>extended table. Replicated kc curve. Start dates always 3/10 now.</t>
+  </si>
+  <si>
+    <t>ref_et.txt</t>
+  </si>
+  <si>
+    <t>Downloaded daily Eto from Cimis in Scott. Added daily data on to existing ET record (new data starting 2011)</t>
+  </si>
+  <si>
+    <t>streamflow_input.txt</t>
+  </si>
+  <si>
+    <t>Downloaded fort jones stream gauge info from USGS. Added daily data onto existing stream record and re-regressed to get tributary flows for 2011-2018.</t>
+  </si>
+  <si>
+    <t>precip.txt</t>
+  </si>
+  <si>
+    <t>Downloaded daily precip from NOAA. Added daily data on to existing ET record (new data starting 2011)</t>
   </si>
 </sst>
 </file>
@@ -701,7 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F339"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9087,16 +9116,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7DA5-4614-486F-98A1-92BE8CF4B7A6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9138,6 +9167,61 @@
       </c>
       <c r="C3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9150,7 +9234,7 @@
   <dimension ref="A1:G2610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32402,8 +32486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E804045-79F7-4E7D-8B19-2A8DBB89F569}">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D128" sqref="D1:D128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CBCDE-C97B-4F76-B9F6-2307D1603B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D921AB7-CFD5-44EE-8003-D9A0F62EA127}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>year</t>
   </si>
@@ -371,6 +371,33 @@
   </si>
   <si>
     <t>Downloaded daily precip from NOAA. Added daily data on to existing ET record (new data starting 2011)</t>
+  </si>
+  <si>
+    <t>Drains_initial_m3day.txt</t>
+  </si>
+  <si>
+    <t>was 252 zeros; now 336 zeros</t>
+  </si>
+  <si>
+    <t>Drains_m3day.txt</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252 &gt; 336 stress periods at top. Added 7 years of Data Set 7 (period length (days/months)). </t>
+  </si>
+  <si>
+    <t>Is the big bulk of this file Dataset 5?</t>
+  </si>
+  <si>
+    <t>hob</t>
+  </si>
+  <si>
+    <t>other modflow files??</t>
+  </si>
+  <si>
+    <t>fix the swbm outputttt</t>
   </si>
 </sst>
 </file>
@@ -9116,10 +9143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7DA5-4614-486F-98A1-92BE8CF4B7A6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9222,6 +9249,54 @@
       </c>
       <c r="C8" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B54E3C-0D1D-4D1D-B1BE-2C2EE0B28994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F438D9F9-0B79-4D57-8025-57A35FEE86ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stress_period_table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>year</t>
   </si>
@@ -382,31 +382,46 @@
     <t>Drains_m3day.txt</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">252 &gt; 336 stress periods at top. Added 7 years of Data Set 7 (period length (days/months)). </t>
   </si>
   <si>
     <t>Is the big bulk of this file Dataset 5?</t>
   </si>
   <si>
-    <t>hob</t>
-  </si>
-  <si>
-    <t>other modflow files??</t>
-  </si>
-  <si>
-    <t>fix the swbm outputttt</t>
-  </si>
-  <si>
-    <t>oc</t>
-  </si>
-  <si>
     <t>days_in_month</t>
   </si>
   <si>
     <t>first_day_of_month</t>
+  </si>
+  <si>
+    <t>SVIHM.dis</t>
+  </si>
+  <si>
+    <t>SVIHM.oc</t>
+  </si>
+  <si>
+    <t>SVIHM.drn</t>
+  </si>
+  <si>
+    <t>SVIHM.wel</t>
+  </si>
+  <si>
+    <t>told it to write 7 extra years of outputs</t>
+  </si>
+  <si>
+    <t>extended table of 10000 drain conductance for each discharge zone cell</t>
+  </si>
+  <si>
+    <t>Update SWBM production of Well file. Change "wel5" to "mfr" variable names; reduce text redundancy</t>
+  </si>
+  <si>
+    <t>to do^</t>
+  </si>
+  <si>
+    <t>SVIHM.hob</t>
+  </si>
+  <si>
+    <t>update wl obs</t>
   </si>
 </sst>
 </file>
@@ -433,12 +448,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -479,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +524,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -819,10 +841,10 @@
         <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -11867,16 +11889,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7DA5-4614-486F-98A1-92BE8CF4B7A6}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -11998,34 +12020,63 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" t="s">
         <v>123</v>
       </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>121</v>
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>122</v>
+      <c r="B15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F438D9F9-0B79-4D57-8025-57A35FEE86ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3740AE3A-800B-45F6-ACDA-5CA5E5D57713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="0" windowWidth="19476" windowHeight="12372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stress_period_table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>year</t>
   </si>
@@ -412,9 +412,6 @@
     <t>extended table of 10000 drain conductance for each discharge zone cell</t>
   </si>
   <si>
-    <t>Update SWBM production of Well file. Change "wel5" to "mfr" variable names; reduce text redundancy</t>
-  </si>
-  <si>
     <t>to do^</t>
   </si>
   <si>
@@ -422,6 +419,45 @@
   </si>
   <si>
     <t>update wl obs</t>
+  </si>
+  <si>
+    <t>"parameter" wells and "nonparameter" wells. Wtf?</t>
+  </si>
+  <si>
+    <t>wel package decoding. Section: "wel5 Q ## #### INSTANCES". "Stress1".</t>
+  </si>
+  <si>
+    <t>Each row under stress1 is a cell in the MFR. YOU SHOULD RENAME THESE TO BE MFR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section just turns MFR on and off for different months. It's so fcking redundant. </t>
+  </si>
+  <si>
+    <t>wel package decoding. Section: "### 9 Stress Period 1".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then each of the MFR recharge cells are invoked below it. </t>
+  </si>
+  <si>
+    <t>Each row here is for the pumping numbers for an actual well. Calculated from SWBM.</t>
+  </si>
+  <si>
+    <t>TO DO: ADD "Stress253-Stress336" to each mfr.</t>
+  </si>
+  <si>
+    <t>Change the names to reference MFRs and ditches.</t>
+  </si>
+  <si>
+    <t>TO DO: Tab files?</t>
+  </si>
+  <si>
+    <t>change param names to MFRs.</t>
+  </si>
+  <si>
+    <t>Confirm I don't need a Stress 336.</t>
+  </si>
+  <si>
+    <t>to do: Change "instance" from 252 to 336. Only goes through 335 - need a 336 stress?</t>
   </si>
 </sst>
 </file>
@@ -11889,10 +11925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7DA5-4614-486F-98A1-92BE8CF4B7A6}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12062,21 +12098,82 @@
       <c r="B14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>127</v>
+      <c r="C14" s="11"/>
+      <c r="D14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3740AE3A-800B-45F6-ACDA-5CA5E5D57713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA47C54-A321-4326-8550-7DA6AB3FF54F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="0" windowWidth="19476" windowHeight="12372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19950" yWindow="-4680" windowWidth="18780" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stress_period_table" sheetId="1" r:id="rId1"/>
     <sheet name="input_file_changes" sheetId="2" r:id="rId2"/>
-    <sheet name="scratch work" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="input_file_dictionary" sheetId="5" r:id="rId3"/>
+    <sheet name="scratch work" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">input_file_dictionary!$B$6:$E$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="205">
   <si>
     <t>year</t>
   </si>
@@ -421,9 +425,6 @@
     <t>update wl obs</t>
   </si>
   <si>
-    <t>"parameter" wells and "nonparameter" wells. Wtf?</t>
-  </si>
-  <si>
     <t>wel package decoding. Section: "wel5 Q ## #### INSTANCES". "Stress1".</t>
   </si>
   <si>
@@ -445,19 +446,208 @@
     <t>TO DO: ADD "Stress253-Stress336" to each mfr.</t>
   </si>
   <si>
-    <t>Change the names to reference MFRs and ditches.</t>
-  </si>
-  <si>
     <t>TO DO: Tab files?</t>
-  </si>
-  <si>
-    <t>change param names to MFRs.</t>
   </si>
   <si>
     <t>Confirm I don't need a Stress 336.</t>
   </si>
   <si>
     <t>to do: Change "instance" from 252 to 336. Only goes through 335 - need a 336 stress?</t>
+  </si>
+  <si>
+    <t>"parameter" wells and "nonparameter" wells. "Parameter" wells are ones that can be adjusted during calibration. Nonparameter wells are specified. In this case, the parameter wells are the Mountain Front Recharge (MFR) locations and the leaking ditches (Farmer's and SVID).</t>
+  </si>
+  <si>
+    <t>Change the names to reference MFRs and ditches. Have to do this in the SWBM source script (and the template file), since that's where .WEL gets written. Gus has done this. Thanks Gus.</t>
+  </si>
+  <si>
+    <t>change param names to MFRs. Gus has done this. Thanks Gus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT TO DO ITEM: Make the generator script create the .DRN file. Use Gus' script. </t>
+  </si>
+  <si>
+    <t>crop_coeff_mult.txt</t>
+  </si>
+  <si>
+    <t>daily_out.txt</t>
+  </si>
+  <si>
+    <t>ET_Cells_DZ.txt</t>
+  </si>
+  <si>
+    <t>irr_eff.txt</t>
+  </si>
+  <si>
+    <t>MAR_Fields.txt</t>
+  </si>
+  <si>
+    <t>No_Flow_SVIHM.txt</t>
+  </si>
+  <si>
+    <t>polygons_table.txt</t>
+  </si>
+  <si>
+    <t>Recharge_Zones_SVIHM.txt</t>
+  </si>
+  <si>
+    <t>SFR_PEST_TPL.txt</t>
+  </si>
+  <si>
+    <t>SFR_UCODE_JTF.txt</t>
+  </si>
+  <si>
+    <t>SVIHM_ETS_template.txt</t>
+  </si>
+  <si>
+    <t>SVIHM_SFR_template.txt</t>
+  </si>
+  <si>
+    <t>SVIHM_WEL_template.txt</t>
+  </si>
+  <si>
+    <t>well_list_by_polygon.txt</t>
+  </si>
+  <si>
+    <t>well_summary.txt</t>
+  </si>
+  <si>
+    <t>Input File Name</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SWBM</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>??? How different from the kc_alfalfa.txt files?</t>
+  </si>
+  <si>
+    <t>For each polygon in this list, SWBM writes a text file with the budget for that field. (??) Contains a list of fields in different categories defined by crop type, irrigation source, and irrigation tech. Also some misc fields associated with MAR and some mystery ones on the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of 0s, one flow for each stress period. Used to represent initial flow in drains. </t>
+  </si>
+  <si>
+    <t>Starts as a list of 0s, one for each stress period. Gets written over in the .bat script?</t>
+  </si>
+  <si>
+    <t>Grid of 0s and 1s. Cells with 1s are cells in the model grid within the Discharge Zone.</t>
+  </si>
+  <si>
+    <t>Questions?</t>
+  </si>
+  <si>
+    <t>Number of: fields, irrigation wells, stress periods, rows, and columns. RD_Mult? Also specifies UCODE or PEST calibration, and which scenario is running.</t>
+  </si>
+  <si>
+    <t>Effective irrigation efficiencies for flood; for alfalfa-wheel line and alfalfa-center pivot; and for pasture-wheel line and pasture-center pivot.</t>
+  </si>
+  <si>
+    <t>Time-dependent crop coefficient, Kc, for alfalfa. Day by day for whole model period. "Growing season" value of 0.9 for Mar 1-Oct 30; "dormant" value of 0 for Nov 1-Feb28/29.</t>
+  </si>
+  <si>
+    <t>Time-dependent crop coefficient, Kc, for pasture. Day by day for whole model period. "Growing season" value of 0.9 for Mar 1-Oct 30; "dormant" value of 0 for Nov 1-Feb28/29.</t>
+  </si>
+  <si>
+    <t>Why are growing season start dates different year to year? Kc curve for the growing season. See generate_inputs script for equation used to generate curve.</t>
+  </si>
+  <si>
+    <t>List of fields used in MAR scenario, and assumed  maximum infiltration rate (into soil column or deeper aquifer?)</t>
+  </si>
+  <si>
+    <t>Grid of 0s and 1s. Cells with 0 are no-flow.</t>
+  </si>
+  <si>
+    <t>Table listing fields/parcels/polygons within the model domain, and associated land use and other properties.</t>
+  </si>
+  <si>
+    <t>Daily precip for whole model period, in meters.</t>
+  </si>
+  <si>
+    <t>???? Field IDs?</t>
+  </si>
+  <si>
+    <t>Daily reference ET in meters and then in inches. Why did we choose to have consistent monthly ET values? Should I preserve those during the model update, or use daily values? Should I use daily values going forward?</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>I should know this</t>
+  </si>
+  <si>
+    <t>This is critical to updating the model</t>
+  </si>
+  <si>
+    <t>Cannot proceed without this information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will need to know this for calibration, or This is really bugging me</t>
+  </si>
+  <si>
+    <t>Monthly streamflow, in monthly average flowrate (cubic meters per day). Generated using Streamflow Regression R script.</t>
+  </si>
+  <si>
+    <t>SFR calibration template file. What do these columns mean? Ptf?</t>
+  </si>
+  <si>
+    <t>ETS input template. ETS used to simulate ET from the saturated zone. We have no parameters because we don't calibrate on ET? (but don't we? We calibrate using the kc values.) Do we not have a Data Set 2? In Data Set 4, what does INETSS mean? What are all these numbers? Starting points for ET?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is thickness and conductivity always 1 and 10? SFR input template. Stream-Flow Routing. Each row pertains to a "reach." Reaches belong to longer "segments." Each row contains the following info: layer, row, column, segment, reach number. Reach length, elevation, slope. Streambed thickness and conductivity (1 and 10). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEL input template. Defines 9 parameters (MFR5-11, FRMRSDitch, SVIDDitch). The definition consists of listing the layer, row, column and flowrate of each cell associated with that mountain front recharge section or the two ditches. Water flow into those cells is uniform across each of the defined sections/ditches. I believe these were defined to match the older SV model from S. S. Papadopulous. Each parameter has a flowrate multiplier specified at the top, which applies to each cell in the definition, and can be altered during calibration. How did we/Papadopulous find these MFR and Ditch infiltration numbers? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log number (associated with Well Completion Reports), layer the well pulls from, row, column, easting and northing. </t>
+  </si>
+  <si>
+    <t>Streamflow regression</t>
+  </si>
+  <si>
+    <t>File generation scripted?</t>
+  </si>
+  <si>
+    <t>A lookup table associating polygons (fields) with (the closest?) well used to irrigate it. Assigns irrigation demanded by ET on that field to a specific well (which is then applied to a specific cell). Method for associating field with a well?</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>To do: combine streamflow inputs into one file. Make this a function callable from Generate_Inputs.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>draft, final tbd</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>don't need to at this time</t>
+  </si>
+  <si>
+    <t>MODFLOW</t>
   </si>
 </sst>
 </file>
@@ -484,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +684,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,6 +781,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11925,10 +12191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7DA5-4614-486F-98A1-92BE8CF4B7A6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12100,7 +12366,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12118,62 +12384,67 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>138</v>
+      <c r="B21" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>140</v>
+      <c r="B26" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -12182,6 +12453,464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="76.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45834955-FDB1-49F5-8590-B53D8262CCAA}">
   <dimension ref="A1:G2610"/>
   <sheetViews>
@@ -35434,12 +36163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E804045-79F7-4E7D-8B19-2A8DBB89F569}">
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA47C54-A321-4326-8550-7DA6AB3FF54F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33124E4-C0BF-4AA1-AE2F-937AB4D58324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19950" yWindow="-4680" windowWidth="18780" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stress_period_table" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="218">
   <si>
     <t>year</t>
   </si>
@@ -602,9 +602,6 @@
     <t xml:space="preserve">Why is thickness and conductivity always 1 and 10? SFR input template. Stream-Flow Routing. Each row pertains to a "reach." Reaches belong to longer "segments." Each row contains the following info: layer, row, column, segment, reach number. Reach length, elevation, slope. Streambed thickness and conductivity (1 and 10). </t>
   </si>
   <si>
-    <t xml:space="preserve">WEL input template. Defines 9 parameters (MFR5-11, FRMRSDitch, SVIDDitch). The definition consists of listing the layer, row, column and flowrate of each cell associated with that mountain front recharge section or the two ditches. Water flow into those cells is uniform across each of the defined sections/ditches. I believe these were defined to match the older SV model from S. S. Papadopulous. Each parameter has a flowrate multiplier specified at the top, which applies to each cell in the definition, and can be altered during calibration. How did we/Papadopulous find these MFR and Ditch infiltration numbers? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Log number (associated with Well Completion Reports), layer the well pulls from, row, column, easting and northing. </t>
   </si>
   <si>
@@ -649,6 +646,48 @@
   <si>
     <t>MODFLOW</t>
   </si>
+  <si>
+    <t>MF_OWHM.exe</t>
+  </si>
+  <si>
+    <t>SVIHM.bas</t>
+  </si>
+  <si>
+    <t>SVIHM.gag</t>
+  </si>
+  <si>
+    <t>SVIHM.nam</t>
+  </si>
+  <si>
+    <t>SVIHM.nwt</t>
+  </si>
+  <si>
+    <t>SVIHM.pvl</t>
+  </si>
+  <si>
+    <t>SVIHM.upw</t>
+  </si>
+  <si>
+    <t>SVIHM.zone</t>
+  </si>
+  <si>
+    <t>SVIHM_bc.nam</t>
+  </si>
+  <si>
+    <t>SVIHM_scen.nam</t>
+  </si>
+  <si>
+    <t>Starting_Heads_L1.txt</t>
+  </si>
+  <si>
+    <t>Starting_Heads_L2.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEL input template (the Modflow WEL file gets written by the SWBM). Defines 9 parameters (MFR5-11, FRMRSDitch, SVIDDitch). The definition consists of listing the layer, row, column and flowrate of each cell associated with that mountain front recharge section or the two ditches. Water flow into those cells is uniform across each of the defined sections/ditches. I believe these were defined to match the older SV model from S. S. Papadopulous. Each parameter has a flowrate multiplier specified at the top, which applies to each cell in the definition, and can be altered during calibration. How did we/Papadopulous find these MFR and Ditch infiltration numbers? </t>
+  </si>
+  <si>
+    <t>why, yes</t>
+  </si>
 </sst>
 </file>
 
@@ -674,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +756,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -756,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,16 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,9 +875,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12454,10 +12516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12465,18 +12527,18 @@
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="76.77734375" style="18" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>200</v>
+      <c r="C1" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>181</v>
@@ -12484,425 +12546,628 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="31" t="s">
-        <v>201</v>
+      <c r="C2" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="21" t="s">
-        <v>202</v>
+      <c r="C3" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="s">
-        <v>203</v>
+      <c r="C4" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="24" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>204</v>
       </c>
+      <c r="C32" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848AA73-73EB-418F-BC78-700336DE8783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E380899-A62B-44DD-A5EF-4F1AEEEC9606}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="4800" windowWidth="9600" windowHeight="6528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_file_dictionary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
   <si>
     <t>year</t>
   </si>
@@ -448,6 +448,35 @@
   </si>
   <si>
     <t>SWBM and Streamflow Regression</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates cells that are active in the model using 1s (active) and 0s (not active). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">25I3? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calls the two text files containing the starting heads for Layer 1 and Layer 2. </t>
+    </r>
+  </si>
+  <si>
+    <t>Provides variables to define discretization in space and time, and units. Flag indicating no quasi-3D confining bed in either layer. Grid of numbers indicating the elevation (meters above mean sea level) of the top of the model domain; the bottom of layer 1; and the bottom of layer 2.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +667,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,8 +1310,8 @@
       <c r="B26" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>114</v>
+      <c r="C26" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20" t="s">
@@ -1295,8 +1325,8 @@
       <c r="B27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>114</v>
+      <c r="C27" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
@@ -1310,8 +1340,8 @@
       <c r="B28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>114</v>
+      <c r="C28" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
@@ -1361,31 +1391,35 @@
       <c r="D31" s="16"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>114</v>
+      <c r="C33" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="30"/>
+      <c r="E33" s="30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E380899-A62B-44DD-A5EF-4F1AEEEC9606}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8638446-7C01-4EA3-914F-7DEDF57D64C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="4800" windowWidth="9600" windowHeight="6528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_file_dictionary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
   <si>
     <t>year</t>
   </si>
@@ -478,6 +478,63 @@
   <si>
     <t>Provides variables to define discretization in space and time, and units. Flag indicating no quasi-3D confining bed in either layer. Grid of numbers indicating the elevation (meters above mean sea level) of the top of the model domain; the bottom of layer 1; and the bottom of layer 2.</t>
   </si>
+  <si>
+    <t>Defines the Discharge Zone (DZ) as a parameter. Each cell in the discharge zone is assigned an elevation and conductance. Then repeats the DZ parameter for each timestep.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies gauge locations (stream segment and reach) and output format (units and output values. Currently set at 4, which includes time, stage, outflow, depth, width, flow at midpoint, streambed condunctance for reach, head difference across streambed, and hydraulic gradient across the streambed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What are all these commented-out gages? Are those for other predictions?</t>
+    </r>
+  </si>
+  <si>
+    <t>SVIHM.sfr</t>
+  </si>
+  <si>
+    <t>Written by SWBM</t>
+  </si>
+  <si>
+    <t>SVIHM.ets</t>
+  </si>
+  <si>
+    <t>getting there</t>
+  </si>
+  <si>
+    <r>
+      <t>Head observation file. Preamble, then, for each well, a row containing: location name, layer, row, column, number of stress periods containing an observation (listed as a negative number), an offset time from the start of the stress period (seems to be used for a structure where each location has one obselvation; it's just 0 for all of ours), row and column offset from center of cell (as fractions of cell width or height; all of ours are located in the middle of a quadrant, specified with + or - 0.25 offsets), and some extra parameters. For each observation under that well, list the unique observation identifier (built on the location name), the stress period in which the measurement was made, the number of time steps into the stress period, the head measurement (meters above mean sea level), and some extra parameters.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How do we connect the CASGEM ids with the DWR_2 ids in the model? Lat/long? What's the fastest way to add new wells to this file? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make to do list in here</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,10 +704,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,7 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -683,6 +733,804 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="$TOGGLE0186AC_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD60CF86-27C1-48C0-8E71-02982C5CA69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="23225760"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="$TOGGLE0186AD_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1628DDC5-DF49-4791-8055-22949EE4CC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="23591520"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="$TOGGLE0186AE_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9432E248-FAD8-4AD7-8687-154A7BCB342F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="23774400"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="$TOGGLE0186AF_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51F9C44-066D-4C48-81DE-F0211C8B2A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="23957280"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="$TOGGLE0186B0_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0EE5F2-CEB1-435C-A40C-1D18538E675F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="24140160"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="$TOGGLE0186B1_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D5B1A2-7D6E-4CCA-A15D-355F5823144F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="24505920"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="$TOGGLE0186B2_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A139CE3-20E9-47CF-B733-FC25FED9C2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="24688800"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="$TOGGLE0186B3_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB1963E-F0CF-4501-86F5-4985EE0909E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="24871680"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="$TOGGLE0186B4_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00066523-322E-4FBC-BFE4-BC79C51EAB23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="25054560"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="$TOGGLE0186B5_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EDEC47-DC6E-4284-850C-EE10A8ECCEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="25237440"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="$TOGGLE0186B6_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2BF008-EADD-4A5A-9638-CBA944A730D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="25420320"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="$TOGGLE0186B7_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E829F70-D041-4FE1-9F86-14A4C56C0192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="25786080"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="$TOGGLE0186B8_ICON" descr="hmtoggle_plus1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1DCF50-6ECA-49D0-AB8B-B41F3BE8BDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2430780" y="25968960"/>
+          <a:ext cx="83820" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,7 +2249,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="30" t="s">
         <v>139</v>
       </c>
@@ -1421,64 +2269,72 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>117</v>
+      <c r="C34" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="30" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="16"/>
-      <c r="E35" s="30"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>114</v>
@@ -1491,7 +2347,7 @@
         <v>122</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>114</v>
@@ -1504,7 +2360,7 @@
         <v>122</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>114</v>
@@ -1517,7 +2373,7 @@
         <v>122</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>114</v>
@@ -1526,24 +2382,24 @@
       <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="A42" s="28"/>
       <c r="B42" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>114</v>
+        <v>143</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="30"/>
+      <c r="E42" s="30" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>114</v>
@@ -1556,20 +2412,22 @@
         <v>122</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="30"/>
+      <c r="E44" s="30" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>114</v>
@@ -1582,7 +2440,7 @@
         <v>122</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>114</v>
@@ -1590,9 +2448,109 @@
       <c r="D46" s="16"/>
       <c r="E46" s="30"/>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8638446-7C01-4EA3-914F-7DEDF57D64C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A6F57-74E4-40E0-BFCD-34E301B6774D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_file_dictionary" sheetId="5" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +718,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -2558,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="H337" sqref="H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,8 +2625,8 @@
         <v>33147</v>
       </c>
       <c r="H2" s="7">
-        <f>G2-DATE(1990, 9, 1)</f>
-        <v>30</v>
+        <f>G3-DATE(1990,10, 1)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2652,8 +2653,8 @@
         <v>33178</v>
       </c>
       <c r="H3">
-        <f>G3-G2</f>
-        <v>31</v>
+        <f>G4-G3</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2680,8 +2681,8 @@
         <v>33208</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="1">G4-G3</f>
-        <v>30</v>
+        <f t="shared" ref="H4:H67" si="1">G5-G4</f>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2737,7 +2738,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2765,7 +2766,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2793,7 +2794,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2821,7 +2822,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2849,7 +2850,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2877,7 +2878,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2933,7 +2934,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2966,7 +2967,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2999,7 +3000,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3032,7 +3033,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3098,7 +3099,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3131,7 +3132,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3164,7 +3165,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3197,7 +3198,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3230,7 +3231,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3263,7 +3264,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3329,7 +3330,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3362,7 +3363,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3395,7 +3396,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,7 +3429,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3494,7 +3495,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3527,7 +3528,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3560,7 +3561,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3593,7 +3594,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3626,7 +3627,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3659,7 +3660,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3725,7 +3726,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3758,7 +3759,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3791,7 +3792,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3824,7 +3825,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3890,7 +3891,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3923,7 +3924,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3956,7 +3957,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3989,7 +3990,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4022,7 +4023,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4055,7 +4056,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4121,7 +4122,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4154,7 +4155,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4187,7 +4188,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4220,7 +4221,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4286,7 +4287,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -4319,7 +4320,7 @@
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4352,7 +4353,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4385,7 +4386,7 @@
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4418,7 +4419,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4451,7 +4452,7 @@
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4517,7 +4518,7 @@
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4550,7 +4551,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4583,7 +4584,7 @@
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4616,7 +4617,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4682,7 +4683,7 @@
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4715,7 +4716,7 @@
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4747,8 +4748,8 @@
         <v>35156</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="60">G68-G67</f>
-        <v>31</v>
+        <f t="shared" ref="H68:H131" si="60">G69-G68</f>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4781,7 +4782,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4814,7 +4815,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4847,7 +4848,7 @@
       </c>
       <c r="H71">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4913,7 +4914,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4946,7 +4947,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4979,7 +4980,7 @@
       </c>
       <c r="H75">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -5012,7 +5013,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -5078,7 +5079,7 @@
       </c>
       <c r="H78">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -5111,7 +5112,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="60"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -5144,7 +5145,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5177,7 +5178,7 @@
       </c>
       <c r="H81">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -5210,7 +5211,7 @@
       </c>
       <c r="H82">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -5243,7 +5244,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -5309,7 +5310,7 @@
       </c>
       <c r="H85">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5342,7 +5343,7 @@
       </c>
       <c r="H86">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -5375,7 +5376,7 @@
       </c>
       <c r="H87">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5408,7 +5409,7 @@
       </c>
       <c r="H88">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -5474,7 +5475,7 @@
       </c>
       <c r="H90">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5507,7 +5508,7 @@
       </c>
       <c r="H91">
         <f t="shared" si="60"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5540,7 +5541,7 @@
       </c>
       <c r="H92">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5573,7 +5574,7 @@
       </c>
       <c r="H93">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -5606,7 +5607,7 @@
       </c>
       <c r="H94">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5639,7 +5640,7 @@
       </c>
       <c r="H95">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5705,7 +5706,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -5738,7 +5739,7 @@
       </c>
       <c r="H98">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -5771,7 +5772,7 @@
       </c>
       <c r="H99">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -5804,7 +5805,7 @@
       </c>
       <c r="H100">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5870,7 +5871,7 @@
       </c>
       <c r="H102">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -5903,7 +5904,7 @@
       </c>
       <c r="H103">
         <f t="shared" si="60"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -5936,7 +5937,7 @@
       </c>
       <c r="H104">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -5969,7 +5970,7 @@
       </c>
       <c r="H105">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -6002,7 +6003,7 @@
       </c>
       <c r="H106">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -6035,7 +6036,7 @@
       </c>
       <c r="H107">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -6101,7 +6102,7 @@
       </c>
       <c r="H109">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -6134,7 +6135,7 @@
       </c>
       <c r="H110">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -6167,7 +6168,7 @@
       </c>
       <c r="H111">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -6200,7 +6201,7 @@
       </c>
       <c r="H112">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -6266,7 +6267,7 @@
       </c>
       <c r="H114">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -6299,7 +6300,7 @@
       </c>
       <c r="H115">
         <f t="shared" si="60"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -6332,7 +6333,7 @@
       </c>
       <c r="H116">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -6365,7 +6366,7 @@
       </c>
       <c r="H117">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,7 +6399,7 @@
       </c>
       <c r="H118">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -6431,7 +6432,7 @@
       </c>
       <c r="H119">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -6497,7 +6498,7 @@
       </c>
       <c r="H121">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -6530,7 +6531,7 @@
       </c>
       <c r="H122">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6563,7 +6564,7 @@
       </c>
       <c r="H123">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6596,7 +6597,7 @@
       </c>
       <c r="H124">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -6662,7 +6663,7 @@
       </c>
       <c r="H126">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -6695,7 +6696,7 @@
       </c>
       <c r="H127">
         <f t="shared" si="60"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -6728,7 +6729,7 @@
       </c>
       <c r="H128">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -6761,7 +6762,7 @@
       </c>
       <c r="H129">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -6794,7 +6795,7 @@
       </c>
       <c r="H130">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6827,7 +6828,7 @@
       </c>
       <c r="H131">
         <f t="shared" si="60"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -6859,7 +6860,7 @@
         <v>37104</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H195" si="129">G132-G131</f>
+        <f t="shared" ref="H132:H195" si="129">G133-G132</f>
         <v>31</v>
       </c>
     </row>
@@ -6893,7 +6894,7 @@
       </c>
       <c r="H133">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -6926,7 +6927,7 @@
       </c>
       <c r="H134">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -6959,7 +6960,7 @@
       </c>
       <c r="H135">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -6992,7 +6993,7 @@
       </c>
       <c r="H136">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -7058,7 +7059,7 @@
       </c>
       <c r="H138">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -7091,7 +7092,7 @@
       </c>
       <c r="H139">
         <f t="shared" si="129"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -7124,7 +7125,7 @@
       </c>
       <c r="H140">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -7157,7 +7158,7 @@
       </c>
       <c r="H141">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -7190,7 +7191,7 @@
       </c>
       <c r="H142">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -7223,7 +7224,7 @@
       </c>
       <c r="H143">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -7289,7 +7290,7 @@
       </c>
       <c r="H145">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -7322,7 +7323,7 @@
       </c>
       <c r="H146">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -7355,7 +7356,7 @@
       </c>
       <c r="H147">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -7388,7 +7389,7 @@
       </c>
       <c r="H148">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -7454,7 +7455,7 @@
       </c>
       <c r="H150">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -7487,7 +7488,7 @@
       </c>
       <c r="H151">
         <f t="shared" si="129"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -7520,7 +7521,7 @@
       </c>
       <c r="H152">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -7553,7 +7554,7 @@
       </c>
       <c r="H153">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -7586,7 +7587,7 @@
       </c>
       <c r="H154">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -7619,7 +7620,7 @@
       </c>
       <c r="H155">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -7685,7 +7686,7 @@
       </c>
       <c r="H157">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -7718,7 +7719,7 @@
       </c>
       <c r="H158">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -7751,7 +7752,7 @@
       </c>
       <c r="H159">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -7784,7 +7785,7 @@
       </c>
       <c r="H160">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -7850,7 +7851,7 @@
       </c>
       <c r="H162">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -7883,7 +7884,7 @@
       </c>
       <c r="H163">
         <f t="shared" si="129"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -7916,7 +7917,7 @@
       </c>
       <c r="H164">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -7949,7 +7950,7 @@
       </c>
       <c r="H165">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -7982,7 +7983,7 @@
       </c>
       <c r="H166">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -8015,7 +8016,7 @@
       </c>
       <c r="H167">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -8081,7 +8082,7 @@
       </c>
       <c r="H169">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -8114,7 +8115,7 @@
       </c>
       <c r="H170">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -8147,7 +8148,7 @@
       </c>
       <c r="H171">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -8180,7 +8181,7 @@
       </c>
       <c r="H172">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -8246,7 +8247,7 @@
       </c>
       <c r="H174">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -8279,7 +8280,7 @@
       </c>
       <c r="H175">
         <f t="shared" si="129"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -8312,7 +8313,7 @@
       </c>
       <c r="H176">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -8345,7 +8346,7 @@
       </c>
       <c r="H177">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -8378,7 +8379,7 @@
       </c>
       <c r="H178">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -8411,7 +8412,7 @@
       </c>
       <c r="H179">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -8477,7 +8478,7 @@
       </c>
       <c r="H181">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -8510,7 +8511,7 @@
       </c>
       <c r="H182">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -8543,7 +8544,7 @@
       </c>
       <c r="H183">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -8576,7 +8577,7 @@
       </c>
       <c r="H184">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -8642,7 +8643,7 @@
       </c>
       <c r="H186">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -8675,7 +8676,7 @@
       </c>
       <c r="H187">
         <f t="shared" si="129"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -8708,7 +8709,7 @@
       </c>
       <c r="H188">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -8741,7 +8742,7 @@
       </c>
       <c r="H189">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -8774,7 +8775,7 @@
       </c>
       <c r="H190">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -8807,7 +8808,7 @@
       </c>
       <c r="H191">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -8873,7 +8874,7 @@
       </c>
       <c r="H193">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -8906,7 +8907,7 @@
       </c>
       <c r="H194">
         <f t="shared" si="129"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -8939,7 +8940,7 @@
       </c>
       <c r="H195">
         <f t="shared" si="129"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -8971,8 +8972,8 @@
         <v>39052</v>
       </c>
       <c r="H196">
-        <f t="shared" ref="H196:H259" si="200">G196-G195</f>
-        <v>30</v>
+        <f t="shared" ref="H196:H259" si="200">G197-G196</f>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -9038,7 +9039,7 @@
       </c>
       <c r="H198">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -9071,7 +9072,7 @@
       </c>
       <c r="H199">
         <f t="shared" si="200"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -9104,7 +9105,7 @@
       </c>
       <c r="H200">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -9137,7 +9138,7 @@
       </c>
       <c r="H201">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -9170,7 +9171,7 @@
       </c>
       <c r="H202">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -9203,7 +9204,7 @@
       </c>
       <c r="H203">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -9269,7 +9270,7 @@
       </c>
       <c r="H205">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -9302,7 +9303,7 @@
       </c>
       <c r="H206">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -9335,7 +9336,7 @@
       </c>
       <c r="H207">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -9368,7 +9369,7 @@
       </c>
       <c r="H208">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -9434,7 +9435,7 @@
       </c>
       <c r="H210">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -9467,7 +9468,7 @@
       </c>
       <c r="H211">
         <f t="shared" si="200"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -9500,7 +9501,7 @@
       </c>
       <c r="H212">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -9533,7 +9534,7 @@
       </c>
       <c r="H213">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -9566,7 +9567,7 @@
       </c>
       <c r="H214">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -9599,7 +9600,7 @@
       </c>
       <c r="H215">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -9665,7 +9666,7 @@
       </c>
       <c r="H217">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -9698,7 +9699,7 @@
       </c>
       <c r="H218">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -9731,7 +9732,7 @@
       </c>
       <c r="H219">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -9764,7 +9765,7 @@
       </c>
       <c r="H220">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -9830,7 +9831,7 @@
       </c>
       <c r="H222">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -9863,7 +9864,7 @@
       </c>
       <c r="H223">
         <f t="shared" si="200"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -9896,7 +9897,7 @@
       </c>
       <c r="H224">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -9929,7 +9930,7 @@
       </c>
       <c r="H225">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -9962,7 +9963,7 @@
       </c>
       <c r="H226">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -9995,7 +9996,7 @@
       </c>
       <c r="H227">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -10061,7 +10062,7 @@
       </c>
       <c r="H229">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -10094,7 +10095,7 @@
       </c>
       <c r="H230">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -10127,7 +10128,7 @@
       </c>
       <c r="H231">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -10160,7 +10161,7 @@
       </c>
       <c r="H232">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -10226,7 +10227,7 @@
       </c>
       <c r="H234">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -10259,7 +10260,7 @@
       </c>
       <c r="H235">
         <f t="shared" si="200"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -10292,7 +10293,7 @@
       </c>
       <c r="H236">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -10325,7 +10326,7 @@
       </c>
       <c r="H237">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -10358,7 +10359,7 @@
       </c>
       <c r="H238">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -10391,7 +10392,7 @@
       </c>
       <c r="H239">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -10457,7 +10458,7 @@
       </c>
       <c r="H241">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -10490,7 +10491,7 @@
       </c>
       <c r="H242">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -10523,7 +10524,7 @@
       </c>
       <c r="H243">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -10556,7 +10557,7 @@
       </c>
       <c r="H244">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -10622,7 +10623,7 @@
       </c>
       <c r="H246">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -10655,7 +10656,7 @@
       </c>
       <c r="H247">
         <f t="shared" si="200"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -10688,7 +10689,7 @@
       </c>
       <c r="H248">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -10721,7 +10722,7 @@
       </c>
       <c r="H249">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -10754,7 +10755,7 @@
       </c>
       <c r="H250">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -10787,7 +10788,7 @@
       </c>
       <c r="H251">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -10853,7 +10854,7 @@
       </c>
       <c r="H253">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -10886,7 +10887,7 @@
       </c>
       <c r="H254">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -10919,7 +10920,7 @@
       </c>
       <c r="H255">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10952,7 +10953,7 @@
       </c>
       <c r="H256">
         <f t="shared" si="200"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -11018,7 +11019,7 @@
       </c>
       <c r="H258">
         <f t="shared" si="200"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -11051,7 +11052,7 @@
       </c>
       <c r="H259">
         <f t="shared" si="200"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -11083,8 +11084,8 @@
         <v>41000</v>
       </c>
       <c r="H260">
-        <f t="shared" ref="H260:H323" si="269">G260-G259</f>
-        <v>31</v>
+        <f t="shared" ref="H260:H323" si="269">G261-G260</f>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -11117,7 +11118,7 @@
       </c>
       <c r="H261">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -11150,7 +11151,7 @@
       </c>
       <c r="H262">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -11183,7 +11184,7 @@
       </c>
       <c r="H263">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -11249,7 +11250,7 @@
       </c>
       <c r="H265">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -11282,7 +11283,7 @@
       </c>
       <c r="H266">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -11315,7 +11316,7 @@
       </c>
       <c r="H267">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -11348,7 +11349,7 @@
       </c>
       <c r="H268">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -11414,7 +11415,7 @@
       </c>
       <c r="H270">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -11447,7 +11448,7 @@
       </c>
       <c r="H271">
         <f t="shared" si="269"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -11480,7 +11481,7 @@
       </c>
       <c r="H272">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -11513,7 +11514,7 @@
       </c>
       <c r="H273">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -11546,7 +11547,7 @@
       </c>
       <c r="H274">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -11579,7 +11580,7 @@
       </c>
       <c r="H275">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -11645,7 +11646,7 @@
       </c>
       <c r="H277">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -11678,7 +11679,7 @@
       </c>
       <c r="H278">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -11711,7 +11712,7 @@
       </c>
       <c r="H279">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -11744,7 +11745,7 @@
       </c>
       <c r="H280">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -11810,7 +11811,7 @@
       </c>
       <c r="H282">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -11843,7 +11844,7 @@
       </c>
       <c r="H283">
         <f t="shared" si="269"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -11876,7 +11877,7 @@
       </c>
       <c r="H284">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -11909,7 +11910,7 @@
       </c>
       <c r="H285">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -11942,7 +11943,7 @@
       </c>
       <c r="H286">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -11975,7 +11976,7 @@
       </c>
       <c r="H287">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -12041,7 +12042,7 @@
       </c>
       <c r="H289">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -12074,7 +12075,7 @@
       </c>
       <c r="H290">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -12107,7 +12108,7 @@
       </c>
       <c r="H291">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -12140,7 +12141,7 @@
       </c>
       <c r="H292">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -12206,7 +12207,7 @@
       </c>
       <c r="H294">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -12239,7 +12240,7 @@
       </c>
       <c r="H295">
         <f t="shared" si="269"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -12272,7 +12273,7 @@
       </c>
       <c r="H296">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -12305,7 +12306,7 @@
       </c>
       <c r="H297">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -12338,7 +12339,7 @@
       </c>
       <c r="H298">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -12371,7 +12372,7 @@
       </c>
       <c r="H299">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -12437,7 +12438,7 @@
       </c>
       <c r="H301">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -12470,7 +12471,7 @@
       </c>
       <c r="H302">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -12503,7 +12504,7 @@
       </c>
       <c r="H303">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -12536,7 +12537,7 @@
       </c>
       <c r="H304">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -12602,7 +12603,7 @@
       </c>
       <c r="H306">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -12635,7 +12636,7 @@
       </c>
       <c r="H307">
         <f t="shared" si="269"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -12668,7 +12669,7 @@
       </c>
       <c r="H308">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -12701,7 +12702,7 @@
       </c>
       <c r="H309">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -12734,7 +12735,7 @@
       </c>
       <c r="H310">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -12767,7 +12768,7 @@
       </c>
       <c r="H311">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -12833,7 +12834,7 @@
       </c>
       <c r="H313">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -12866,7 +12867,7 @@
       </c>
       <c r="H314">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -12899,7 +12900,7 @@
       </c>
       <c r="H315">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -12932,7 +12933,7 @@
       </c>
       <c r="H316">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -12998,7 +12999,7 @@
       </c>
       <c r="H318">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -13031,7 +13032,7 @@
       </c>
       <c r="H319">
         <f t="shared" si="269"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -13064,7 +13065,7 @@
       </c>
       <c r="H320">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -13097,7 +13098,7 @@
       </c>
       <c r="H321">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -13130,7 +13131,7 @@
       </c>
       <c r="H322">
         <f t="shared" si="269"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -13163,7 +13164,7 @@
       </c>
       <c r="H323">
         <f t="shared" si="269"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -13195,7 +13196,7 @@
         <v>42948</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H337" si="340">G324-G323</f>
+        <f t="shared" ref="H324:H337" si="340">G325-G324</f>
         <v>31</v>
       </c>
     </row>
@@ -13229,7 +13230,7 @@
       </c>
       <c r="H325">
         <f t="shared" si="340"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -13262,7 +13263,7 @@
       </c>
       <c r="H326">
         <f t="shared" si="340"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -13295,7 +13296,7 @@
       </c>
       <c r="H327">
         <f t="shared" si="340"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -13328,7 +13329,7 @@
       </c>
       <c r="H328">
         <f t="shared" si="340"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -13394,7 +13395,7 @@
       </c>
       <c r="H330">
         <f t="shared" si="340"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -13427,7 +13428,7 @@
       </c>
       <c r="H331">
         <f t="shared" si="340"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -13460,7 +13461,7 @@
       </c>
       <c r="H332">
         <f t="shared" si="340"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -13493,7 +13494,7 @@
       </c>
       <c r="H333">
         <f t="shared" si="340"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -13526,7 +13527,7 @@
       </c>
       <c r="H334">
         <f t="shared" si="340"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -13559,7 +13560,7 @@
       </c>
       <c r="H335">
         <f t="shared" si="340"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -13623,9 +13624,14 @@
         <f t="shared" si="338"/>
         <v>43344</v>
       </c>
-      <c r="H337">
-        <f t="shared" si="340"/>
-        <v>31</v>
+      <c r="H337" s="7">
+        <f>G338-G337</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G338" s="32">
+        <v>43374</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A6F57-74E4-40E0-BFCD-34E301B6774D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B37D2B-87EF-4B1A-9503-2BB3DFD1EC48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_file_dictionary" sheetId="5" r:id="rId1"/>
@@ -507,9 +507,6 @@
     <t>SVIHM.ets</t>
   </si>
   <si>
-    <t>getting there</t>
-  </si>
-  <si>
     <r>
       <t>Head observation file. Preamble, then, for each well, a row containing: location name, layer, row, column, number of stress periods containing an observation (listed as a negative number), an offset time from the start of the stress period (seems to be used for a structure where each location has one obselvation; it's just 0 for all of ours), row and column offset from center of cell (as fractions of cell width or height; all of ours are located in the middle of a quadrant, specified with + or - 0.25 offsets), and some extra parameters. For each observation under that well, list the unique observation identifier (built on the location name), the stress period in which the measurement was made, the number of time steps into the stress period, the head measurement (meters above mean sea level), and some extra parameters.</t>
     </r>
@@ -535,6 +532,9 @@
       <t>Make to do list in here</t>
     </r>
   </si>
+  <si>
+    <t>drafted with outstanding to dos</t>
+  </si>
 </sst>
 </file>
 
@@ -557,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -651,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,12 +2331,12 @@
       <c r="B37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>146</v>
+      <c r="C37" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2559,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+    <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="H337" sqref="H337"/>
     </sheetView>
   </sheetViews>
@@ -13196,7 +13205,7 @@
         <v>42948</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H337" si="340">G325-G324</f>
+        <f t="shared" ref="H324:H336" si="340">G325-G324</f>
         <v>31</v>
       </c>
     </row>

--- a/SWBM/update2018notes/notes.xlsx
+++ b/SWBM/update2018notes/notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B37D2B-87EF-4B1A-9503-2BB3DFD1EC48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1787EBB0-AE69-4879-83D8-D5277F1BEF50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>year</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>drafted with outstanding to dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lists all the output file types and names (e.g., hob for head observations). </t>
+  </si>
+  <si>
+    <t>Controls when the water budget is saved (after every stress period)</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586B933-D340-49CB-AB4A-230CE00A6B42}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,11 +2352,13 @@
       <c r="B38" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>114</v>
+      <c r="C38" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="30"/>
+      <c r="E38" s="30" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -2359,8 +2367,8 @@
       <c r="B39" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>114</v>
+      <c r="C39" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="30"/>
@@ -2372,11 +2380,13 @@
       <c r="B40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>114</v>
+      <c r="C40" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="30"/>
+      <c r="E40" s="30" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
